--- a/media/created_members.xlsx
+++ b/media/created_members.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>?h&lt;Cj={98@|&gt;</t>
+          <t>VY?4E/T]%by7</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5@kl88Y`U4!o</t>
+          <t>Us*!!s=#ZN?Q</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L/xf%nI|;*_h</t>
+          <t>ClEk'p!`*3[(</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>otxJa&lt;~o/%@~</t>
+          <t>P&gt;(8N5\"2#=k</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>}ud`Xr[z@fnJ</t>
+          <t>.&lt;({)lPMI#oq</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>d-Bs,+n~zf9+</t>
+          <t>1,hmRJW&amp;h"iZ</t>
         </is>
       </c>
     </row>
